--- a/biology/Botanique/Chemin_de_fer_de_la_forêt_de_Soignes/Chemin_de_fer_de_la_forêt_de_Soignes.xlsx
+++ b/biology/Botanique/Chemin_de_fer_de_la_forêt_de_Soignes/Chemin_de_fer_de_la_forêt_de_Soignes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chemin_de_fer_de_la_for%C3%AAt_de_Soignes</t>
+          <t>Chemin_de_fer_de_la_forêt_de_Soignes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chemin de fer de la forêt de Soignes était un chemin de fer belge de type Decauville, qui a disparu depuis 1918.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chemin_de_fer_de_la_for%C3%AAt_de_Soignes</t>
+          <t>Chemin_de_fer_de_la_forêt_de_Soignes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mis en service en 1902, ce chemin de fer reliait la Petite Espinette, lieu-dit de la commune d'Uccle (à la limite de Rhode-Saint-Genèse) alors desservi par l'ancienne ligne vers Waterloo de la SNCV, à la gare de Boitsfort, sur la ligne ferroviaire Bruxelles – Namur – Luxembourg. Établie dans la forêt de Soignes, la longueur de la ligne est de 2,5 kilomètres.
-Après la Première Guerre mondiale, elle fut abandonnée pour des raisons de rentabilité. Cette voie ferrée acheminait les matériaux d'empierrement des chemins forestiers, et servait également au transport du bois[1].
+Après la Première Guerre mondiale, elle fut abandonnée pour des raisons de rentabilité. Cette voie ferrée acheminait les matériaux d'empierrement des chemins forestiers, et servait également au transport du bois.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chemin_de_fer_de_la_for%C3%AAt_de_Soignes</t>
+          <t>Chemin_de_fer_de_la_forêt_de_Soignes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Partant du début de la drève Saint-Hubert, le chemin de fer traversait la drève de Lorraine pour longer ensuite une grande partie de la drève des Deux Montagnes.
 </t>
